--- a/TalosBoards/Acoustics/Acoustics BOM.xlsx
+++ b/TalosBoards/Acoustics/Acoustics BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\Everything\UWRT\Electrical\GIT\electric_boogaloo\TempestBoards\Acoustics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\Everything\UWRT\Electrical\GIT\electric_boogaloo\TalosBoards\Acoustics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BE2DD6-7EE6-4CAA-8726-B468F6E92365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2D8E7-FA71-4F66-8654-32844A768A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="212">
   <si>
     <t>Distributor</t>
   </si>
@@ -663,6 +663,33 @@
   </si>
   <si>
     <t>PE-0402CL470JTT</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>WM13195-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0353180420/3185063?s=N4IgTCBcDaIOoFkCMBmJBOArAWgHIBEQBdAXyA</t>
+  </si>
+  <si>
+    <t>Minifit jr R/A 4 pin</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0039300020/930320</t>
+  </si>
+  <si>
+    <t>WM21351-ND</t>
+  </si>
+  <si>
+    <t>Minifit jr R/A 2 pin</t>
+  </si>
+  <si>
+    <t>Weren't listed in the inventory report but we may have some</t>
+  </si>
+  <si>
+    <t>This and the 2 pin below also need their respective connectors</t>
   </si>
 </sst>
 </file>
@@ -815,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,6 +895,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,8 +1200,8 @@
   <dimension ref="B1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,103 +2670,151 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="21">
+        <v>353180420</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5</v>
+      </c>
       <c r="J49" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D50" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="22">
+        <v>39300020</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
       <c r="J50" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+        <f>I50-H50</f>
+        <v>-2</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J51" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J52" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J53" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J54" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J55" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J56" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J57" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J58" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J59" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J60" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J61" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J62" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J63" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J64" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2847,8 +2928,10 @@
     <hyperlink ref="B20" r:id="rId45" xr:uid="{D8ECC531-137A-47E3-8E7B-7F5B3E16C0DC}"/>
     <hyperlink ref="B47" r:id="rId46" xr:uid="{EC666389-E9C0-49A7-B16D-0DBB03248AC5}"/>
     <hyperlink ref="B48" r:id="rId47" xr:uid="{660ECBA0-88CE-4515-B5E8-18D239CB5FAE}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{4E4A2185-D8AF-43D1-8D11-24E04B32F50B}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{771B35E7-FDFB-41F5-B84B-05C74899FB84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId48"/>
+  <legacyDrawing r:id="rId50"/>
 </worksheet>
 </file>
--- a/TalosBoards/Acoustics/Acoustics BOM.xlsx
+++ b/TalosBoards/Acoustics/Acoustics BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\Everything\UWRT\Electrical\GIT\electric_boogaloo\TalosBoards\Acoustics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2D8E7-FA71-4F66-8654-32844A768A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B5F6D0-9569-4453-8F36-7A7BD3829F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
   <si>
     <t>Distributor</t>
   </si>
@@ -209,18 +209,6 @@
     <t>https://www.digikey.com/en/products/detail/tdk-corporation/MLF1608E120JTD25/4743066</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/koa-speer-electronics-inc/RN73H1JTTD1451B50/10688964</t>
-  </si>
-  <si>
-    <t>2019-RN73H1JTTD1451B50TR-ND</t>
-  </si>
-  <si>
-    <t>RN73H1JTTD1451B50</t>
-  </si>
-  <si>
-    <t>1.45k Ohm Resistor 0603</t>
-  </si>
-  <si>
     <t>MLF1608E120JT000 TDK Corporation | Inductors, Coils, Chokes | DigiKey</t>
   </si>
   <si>
@@ -581,18 +569,6 @@
     <t>RF Diode</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM1885C1H222JA01D/586951</t>
-  </si>
-  <si>
-    <t>2.2n Farad Capacitor 0603</t>
-  </si>
-  <si>
-    <t>GRM1885C1H222JA01D</t>
-  </si>
-  <si>
-    <t>490-1459-2-ND</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/analog-devices-inc/AD9837ACPZ-RL7/2677471</t>
   </si>
   <si>
@@ -620,9 +596,6 @@
     <t>732-8007-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">10n Farad Capacitor </t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012206089/5453862?s=N4IgTCBcDaIOwGYwFoAcAGddkEZkDkAREAXQF8g</t>
   </si>
   <si>
@@ -690,6 +663,69 @@
   </si>
   <si>
     <t>This and the 2 pin below also need their respective connectors</t>
+  </si>
+  <si>
+    <t>1u Farad Capacitor 0402</t>
+  </si>
+  <si>
+    <t>C1005X5R1V105K050BC</t>
+  </si>
+  <si>
+    <t>445-9073-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/c1005x5r1v105k050bc/3648589</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GCM155R71H103KA55D/1641636</t>
+  </si>
+  <si>
+    <t>490-4762-2-ND</t>
+  </si>
+  <si>
+    <t>GCM155R71H103KA55D</t>
+  </si>
+  <si>
+    <t>10n Farad Capacitor 0402</t>
+  </si>
+  <si>
+    <t>10n Farad Capacitor 0603</t>
+  </si>
+  <si>
+    <t>1M Ohm Resistor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-2RKF1004X/79728</t>
+  </si>
+  <si>
+    <t>P1.00MLTR-ND</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1004X</t>
+  </si>
+  <si>
+    <t>PSMN4R6-60BS,118</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>N-CH MOSFET</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nexperia-usa-inc/PSMN4R6-60BS-118/3131545?s=N4IgTCBcDaIAoGUCyA5ALAJQGwFosAYAhBAGgEYyAOEAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/edac-inc/690-005-299-043/4312191</t>
+  </si>
+  <si>
+    <t>USB B-Mini</t>
+  </si>
+  <si>
+    <t>151-1206-2-ND</t>
+  </si>
+  <si>
+    <t>690-005-299-043</t>
   </si>
 </sst>
 </file>
@@ -727,7 +763,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +773,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,11 +913,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,11 +944,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1197,16 +1245,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.85546875" style="22"/>
     <col min="2" max="2" width="8.85546875" style="4"/>
     <col min="3" max="3" width="9.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
@@ -1219,7 +1267,7 @@
     <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1248,9 +1296,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -1268,17 +1317,18 @@
         <v>12</v>
       </c>
       <c r="H2" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1">
         <v>39</v>
       </c>
       <c r="J2" s="7">
         <f>I2-H2</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1307,14 +1357,15 @@
         <f t="shared" ref="J3:J66" si="0">I3-H3</f>
         <v>-2</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -1332,23 +1383,24 @@
         <v>20</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
         <v>31</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -1366,23 +1418,24 @@
         <v>28</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
         <v>4</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
@@ -1400,34 +1453,35 @@
         <v>27</v>
       </c>
       <c r="H6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1">
         <v>8</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -1440,7 +1494,8 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1470,7 +1525,8 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1500,9 +1556,10 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1520,77 +1577,80 @@
         <v>39</v>
       </c>
       <c r="H10" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="1">
         <v>19</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>178</v>
+      <c r="D11" t="s">
+        <v>205</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>177</v>
+      <c r="F11" t="s">
+        <v>204</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
@@ -1620,7 +1680,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
@@ -1650,54 +1711,56 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>55</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -1710,24 +1773,25 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>58727859</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -1740,24 +1804,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1770,24 +1835,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
@@ -1800,24 +1866,25 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H20" s="1">
         <v>2</v>
@@ -1830,24 +1897,25 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1">
         <v>6</v>
@@ -1860,24 +1928,25 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H22" s="1">
         <v>2</v>
@@ -1890,24 +1959,25 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
       <c r="B23" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H23" s="1">
         <v>10</v>
@@ -1920,24 +1990,25 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -1950,24 +2021,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
       <c r="B25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" s="1">
         <v>4</v>
@@ -1980,24 +2052,25 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
       <c r="B26" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -2010,24 +2083,25 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H27" s="1">
         <v>2</v>
@@ -2040,24 +2114,25 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -2070,24 +2145,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -2100,24 +2176,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
       <c r="B30" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -2130,24 +2207,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
@@ -2160,24 +2238,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
@@ -2190,24 +2269,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H33" s="1">
         <v>2</v>
@@ -2220,24 +2300,25 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -2250,24 +2331,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -2280,24 +2362,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
       <c r="B36" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -2310,24 +2393,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -2340,24 +2424,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -2370,24 +2455,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
       <c r="B39" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -2400,54 +2486,56 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
       <c r="B40" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H40" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I40" s="1">
         <v>50</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
       <c r="B41" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -2460,24 +2548,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
       <c r="B42" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -2490,24 +2579,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
       <c r="B43" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -2520,24 +2610,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
       <c r="B44" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -2550,24 +2641,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
       <c r="B45" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="13">
         <v>885012206089</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -2580,24 +2672,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
       <c r="B46" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -2610,24 +2703,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
       <c r="B47" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H47" s="1">
         <v>4</v>
@@ -2640,24 +2734,25 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
       <c r="B48" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H48" s="1">
         <v>2</v>
@@ -2670,24 +2765,25 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
       <c r="B49" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F49" s="21">
+        <v>194</v>
+      </c>
+      <c r="F49" s="14">
         <v>353180420</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
@@ -2700,27 +2796,28 @@
         <v>3</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
       <c r="B50" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="22">
+        <v>194</v>
+      </c>
+      <c r="F50" s="15">
         <v>39300020</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H50" s="1">
         <v>2</v>
@@ -2733,88 +2830,180 @@
         <v>-2</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
       <c r="J51" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2</v>
+      </c>
       <c r="J52" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2</v>
+      </c>
       <c r="J53" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J54" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J55" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J56" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J57" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J58" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J59" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J60" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J61" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J62" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J63" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J64" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2885,53 +3074,54 @@
     <hyperlink ref="L4" r:id="rId2" xr:uid="{117D66DA-B4C9-4F89-979A-CA3630CC1039}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{F0B1C8B8-CCC7-4639-A770-8C7CA725F5F7}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{8FAB0615-517D-4C8F-BA41-5B04E5F824C9}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{BC4C1460-38CA-4CEE-BEDC-9F98F00471C5}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{A733FADA-82C1-4F90-BED8-B97CB5E0DE63}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{802432F0-11B7-40AA-BF79-E0D5E0CC68B4}"/>
-    <hyperlink ref="B15" r:id="rId8" display="https://www.digikey.com/en/products/detail/tdk-corporation/MLF1608E120JT000/613002" xr:uid="{D8A79B70-07C3-44B1-AD38-BD39B6DBBC4F}"/>
-    <hyperlink ref="B16" r:id="rId9" xr:uid="{BBCB6F7F-0749-4637-AC93-49A6061C94F0}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{FD4DB674-2DB9-4C54-B02D-5CA2F72A7613}"/>
-    <hyperlink ref="B21" r:id="rId11" xr:uid="{EBF69074-E1AA-4048-89FE-9DC0ACCE9E8B}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{01721D9B-AAD3-426B-A909-D20253742787}"/>
-    <hyperlink ref="B23" r:id="rId13" xr:uid="{4914439B-4167-460C-853A-EB40DC4CE838}"/>
-    <hyperlink ref="B26" r:id="rId14" xr:uid="{4A2745ED-3370-4564-A62C-B0A1DB78B923}"/>
-    <hyperlink ref="B27" r:id="rId15" xr:uid="{F160F38D-D9AE-42F3-90D2-BC48E8B549E6}"/>
-    <hyperlink ref="B29" r:id="rId16" xr:uid="{EDBFCCEF-AA17-4065-84AE-FA8205AB3657}"/>
-    <hyperlink ref="B30" r:id="rId17" xr:uid="{567E1DFD-7565-4D2B-AD1E-8BA2CC2B7CD1}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{5724C61A-EE78-499E-8124-DCA88ACE361E}"/>
-    <hyperlink ref="B32" r:id="rId19" xr:uid="{28539F95-762D-44BF-B545-34BCB3608D98}"/>
-    <hyperlink ref="B33" r:id="rId20" xr:uid="{9030104C-9038-4D9B-9262-0388C128CABE}"/>
-    <hyperlink ref="B34" r:id="rId21" xr:uid="{1CBE56DF-2DF3-4E25-83AA-401929945F39}"/>
-    <hyperlink ref="B35" r:id="rId22" xr:uid="{C274C21D-FA45-4B59-8E4E-271C85FFE580}"/>
-    <hyperlink ref="B36" r:id="rId23" xr:uid="{8B0CBE11-CC04-435E-B878-FCBA3CD98D41}"/>
-    <hyperlink ref="B38" r:id="rId24" xr:uid="{AC8432AB-CF64-4FC1-968E-1A353F4F4D5F}"/>
-    <hyperlink ref="B39" r:id="rId25" xr:uid="{C8178E3F-7874-4C86-8929-7A1BB3C402DA}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{A3E50310-F42D-48EF-81C3-E5BE434F2409}"/>
-    <hyperlink ref="B41" r:id="rId27" xr:uid="{CE69E7BC-8A24-4486-B64F-B95973F21871}"/>
-    <hyperlink ref="B17" r:id="rId28" xr:uid="{D4181B56-5FAB-45CB-89DE-DE8EB259BED5}"/>
-    <hyperlink ref="B2" r:id="rId29" xr:uid="{950B57D0-A0CC-4EBD-B337-7D37E989B726}"/>
-    <hyperlink ref="B4" r:id="rId30" xr:uid="{CD6E5DB5-37E4-4792-AFEC-53589F6D801C}"/>
-    <hyperlink ref="B5" r:id="rId31" xr:uid="{BA151E8C-57CC-464A-877C-C1BC521C019D}"/>
-    <hyperlink ref="B6" r:id="rId32" xr:uid="{547B1D52-F5E0-4AF7-833F-0BFE4EE65081}"/>
-    <hyperlink ref="B10" r:id="rId33" xr:uid="{D906CB7A-FB00-4D76-B1E5-D631D0289074}"/>
-    <hyperlink ref="B24" r:id="rId34" xr:uid="{5DAF8B42-96E1-4E53-BD5E-6450ADB9E014}"/>
-    <hyperlink ref="B42" r:id="rId35" xr:uid="{476A1C4A-31E0-4C93-BE68-9C325C990CE1}"/>
-    <hyperlink ref="B43" r:id="rId36" xr:uid="{D113B403-2FE2-45BB-BAC2-15405AFB41FA}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{66213E65-08A8-4E8C-81DD-CFF5BE1E8955}"/>
-    <hyperlink ref="B28" r:id="rId38" xr:uid="{726BBFC9-04B4-4769-B4C5-23FB9F7D71A1}"/>
-    <hyperlink ref="B7" r:id="rId39" xr:uid="{CC18A0A0-AA11-4CBF-A10D-1BFFBF4448B2}"/>
-    <hyperlink ref="B11" r:id="rId40" xr:uid="{6803FBBF-A791-4072-96C0-2C10F54771A5}"/>
-    <hyperlink ref="B18" r:id="rId41" xr:uid="{67C1310B-8FAC-43CB-9AD5-94640A9C01DE}"/>
-    <hyperlink ref="B40" r:id="rId42" xr:uid="{EDEE17FF-68CC-4F30-AB02-AB5170BC04D2}"/>
-    <hyperlink ref="B45" r:id="rId43" xr:uid="{039B3AEA-99FA-41CC-A274-C098F368E7D2}"/>
-    <hyperlink ref="B46" r:id="rId44" xr:uid="{29F77E5F-98F8-4F94-8C11-3FA54326F421}"/>
-    <hyperlink ref="B20" r:id="rId45" xr:uid="{D8ECC531-137A-47E3-8E7B-7F5B3E16C0DC}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{EC666389-E9C0-49A7-B16D-0DBB03248AC5}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{660ECBA0-88CE-4515-B5E8-18D239CB5FAE}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{4E4A2185-D8AF-43D1-8D11-24E04B32F50B}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{771B35E7-FDFB-41F5-B84B-05C74899FB84}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{A733FADA-82C1-4F90-BED8-B97CB5E0DE63}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{802432F0-11B7-40AA-BF79-E0D5E0CC68B4}"/>
+    <hyperlink ref="B15" r:id="rId7" display="https://www.digikey.com/en/products/detail/tdk-corporation/MLF1608E120JT000/613002" xr:uid="{D8A79B70-07C3-44B1-AD38-BD39B6DBBC4F}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{BBCB6F7F-0749-4637-AC93-49A6061C94F0}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{FD4DB674-2DB9-4C54-B02D-5CA2F72A7613}"/>
+    <hyperlink ref="B21" r:id="rId10" xr:uid="{EBF69074-E1AA-4048-89FE-9DC0ACCE9E8B}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{01721D9B-AAD3-426B-A909-D20253742787}"/>
+    <hyperlink ref="B23" r:id="rId12" xr:uid="{4914439B-4167-460C-853A-EB40DC4CE838}"/>
+    <hyperlink ref="B26" r:id="rId13" xr:uid="{4A2745ED-3370-4564-A62C-B0A1DB78B923}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{F160F38D-D9AE-42F3-90D2-BC48E8B549E6}"/>
+    <hyperlink ref="B29" r:id="rId15" xr:uid="{EDBFCCEF-AA17-4065-84AE-FA8205AB3657}"/>
+    <hyperlink ref="B30" r:id="rId16" xr:uid="{567E1DFD-7565-4D2B-AD1E-8BA2CC2B7CD1}"/>
+    <hyperlink ref="B31" r:id="rId17" xr:uid="{5724C61A-EE78-499E-8124-DCA88ACE361E}"/>
+    <hyperlink ref="B32" r:id="rId18" xr:uid="{28539F95-762D-44BF-B545-34BCB3608D98}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{9030104C-9038-4D9B-9262-0388C128CABE}"/>
+    <hyperlink ref="B34" r:id="rId20" xr:uid="{1CBE56DF-2DF3-4E25-83AA-401929945F39}"/>
+    <hyperlink ref="B35" r:id="rId21" xr:uid="{C274C21D-FA45-4B59-8E4E-271C85FFE580}"/>
+    <hyperlink ref="B36" r:id="rId22" xr:uid="{8B0CBE11-CC04-435E-B878-FCBA3CD98D41}"/>
+    <hyperlink ref="B38" r:id="rId23" xr:uid="{AC8432AB-CF64-4FC1-968E-1A353F4F4D5F}"/>
+    <hyperlink ref="B39" r:id="rId24" xr:uid="{C8178E3F-7874-4C86-8929-7A1BB3C402DA}"/>
+    <hyperlink ref="B37" r:id="rId25" xr:uid="{A3E50310-F42D-48EF-81C3-E5BE434F2409}"/>
+    <hyperlink ref="B41" r:id="rId26" xr:uid="{CE69E7BC-8A24-4486-B64F-B95973F21871}"/>
+    <hyperlink ref="B17" r:id="rId27" xr:uid="{D4181B56-5FAB-45CB-89DE-DE8EB259BED5}"/>
+    <hyperlink ref="B2" r:id="rId28" xr:uid="{950B57D0-A0CC-4EBD-B337-7D37E989B726}"/>
+    <hyperlink ref="B4" r:id="rId29" xr:uid="{CD6E5DB5-37E4-4792-AFEC-53589F6D801C}"/>
+    <hyperlink ref="B5" r:id="rId30" xr:uid="{BA151E8C-57CC-464A-877C-C1BC521C019D}"/>
+    <hyperlink ref="B6" r:id="rId31" xr:uid="{547B1D52-F5E0-4AF7-833F-0BFE4EE65081}"/>
+    <hyperlink ref="B10" r:id="rId32" xr:uid="{D906CB7A-FB00-4D76-B1E5-D631D0289074}"/>
+    <hyperlink ref="B24" r:id="rId33" xr:uid="{5DAF8B42-96E1-4E53-BD5E-6450ADB9E014}"/>
+    <hyperlink ref="B42" r:id="rId34" xr:uid="{476A1C4A-31E0-4C93-BE68-9C325C990CE1}"/>
+    <hyperlink ref="B43" r:id="rId35" xr:uid="{D113B403-2FE2-45BB-BAC2-15405AFB41FA}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{66213E65-08A8-4E8C-81DD-CFF5BE1E8955}"/>
+    <hyperlink ref="B28" r:id="rId37" xr:uid="{726BBFC9-04B4-4769-B4C5-23FB9F7D71A1}"/>
+    <hyperlink ref="B7" r:id="rId38" xr:uid="{CC18A0A0-AA11-4CBF-A10D-1BFFBF4448B2}"/>
+    <hyperlink ref="B18" r:id="rId39" xr:uid="{67C1310B-8FAC-43CB-9AD5-94640A9C01DE}"/>
+    <hyperlink ref="B40" r:id="rId40" xr:uid="{EDEE17FF-68CC-4F30-AB02-AB5170BC04D2}"/>
+    <hyperlink ref="B45" r:id="rId41" xr:uid="{039B3AEA-99FA-41CC-A274-C098F368E7D2}"/>
+    <hyperlink ref="B46" r:id="rId42" xr:uid="{29F77E5F-98F8-4F94-8C11-3FA54326F421}"/>
+    <hyperlink ref="B20" r:id="rId43" xr:uid="{D8ECC531-137A-47E3-8E7B-7F5B3E16C0DC}"/>
+    <hyperlink ref="B47" r:id="rId44" xr:uid="{EC666389-E9C0-49A7-B16D-0DBB03248AC5}"/>
+    <hyperlink ref="B48" r:id="rId45" xr:uid="{660ECBA0-88CE-4515-B5E8-18D239CB5FAE}"/>
+    <hyperlink ref="B49" r:id="rId46" xr:uid="{4E4A2185-D8AF-43D1-8D11-24E04B32F50B}"/>
+    <hyperlink ref="B50" r:id="rId47" xr:uid="{771B35E7-FDFB-41F5-B84B-05C74899FB84}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{C1AC73BE-2879-4EF5-B39E-04D0592DA598}"/>
+    <hyperlink ref="B52" r:id="rId49" xr:uid="{0164EF7E-BA6A-4132-B4A4-027275B4D37D}"/>
+    <hyperlink ref="B53" r:id="rId50" xr:uid="{10AD5EEC-3791-4B52-AABA-1C57491939B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId50"/>
+  <legacyDrawing r:id="rId51"/>
 </worksheet>
 </file>